--- a/Jupyter Notebook/BTC Anlys 20180428 version 02.xlsx
+++ b/Jupyter Notebook/BTC Anlys 20180428 version 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/Jupyter Notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3778F-7472-134E-A684-85C7D1CC1DBE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57878863-C041-D349-B662-225A94A11EF2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="24600" windowHeight="15540" activeTab="4" xr2:uid="{D5192360-7406-454D-866B-A8A89EF9EB09}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="213">
   <si>
     <t>Program Country:Response</t>
   </si>
@@ -915,6 +915,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Q03_I_would_describe_myself_asResourceful</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q04_I_would_describe_myself_asPatient</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q05_I_would_describe_myself_asCulturally_Competent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q06_I_would_describe_myself_asAdaptable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q07_I_would_describe_myself_asEmotionally_Intelligent</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q08_I_would_describe_myself_asResilient</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q09_Professional_Learning_Communities_PLCs_were_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q10_The_Five_Step_Lesson_Plan_Template_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q11_The_Data_Analysis_Tool_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q12_The_Professional_Development_Modules_Scholarly_Articles_were_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q13_WorldTeachNet_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q14_Please_rate_the_Field_Director_on_the_following1_Was_accessible_and_eager_to_help</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q15_Please_rate_the_Field_Director_on_the_following2_Responded_promptly_to_requests_for_help</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q16_Please_rate_the_Field_Director_on_the_following3_Anticipated_needs_of_volunteers</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q17_Please_rate_the_Field_Director_on_the_following4_Followed_through_on_administrative_site_or_housing_issues</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q18_Please_rate_the_Field_Director_on_the_following5_Kept_volunteers_informed_of_changes_and_relevant_information</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q20_If_yesa_The_site_visit_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q21_If_yesb_The_field_staff_member_made_me_feel_supported</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q22_If_yesc_The_field_staff_member_gave_me_useful_and_professional_feedback</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q23_andI_felt_safe_in_my_home</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q24_andI_felt_safe_in_my_community</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q25_andI_felt_safe_in_my_country_of_service</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>A01_Recommend</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>A02_Satisfaction</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q28_WorldTeacha_Offered_a_useful_service_to_the_host_country</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q29_WorldTeachb_Gave_me_a_meaningful_teaching_experience</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q30_WorldTeachc_Increased_my_understanding_of_another_culture</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q31_WorldTeachd_Improved_my_skills_in_the_local_language</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q32_WorldTeache_Helped_definechange_my_career_outlook</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q33_WorldTeachf_Provided_a_worthwhile_experience</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q34_useful_during_my_year_of_servicePredeparture_materials_and_assistance</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q35_useful_during_my_year_of_serviceOrientation_and_incountry_training</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q36_useful_during_my_year_of_serviceMidService_Conference</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q37_useful_during_my_year_of_serviceIncountry_staff_support_and_communication_with_Field_Director</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q38_useful_during_my_year_of_serviceSite_visitteaching_observation_by_Field_Director</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q39_useful_during_my_year_of_serviceEndofService</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$173:$AM$173</c:f>
@@ -1077,6 +1193,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Q03_I_would_describe_myself_asResourceful</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q04_I_would_describe_myself_asPatient</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q05_I_would_describe_myself_asCulturally_Competent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q06_I_would_describe_myself_asAdaptable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q07_I_would_describe_myself_asEmotionally_Intelligent</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q08_I_would_describe_myself_asResilient</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q09_Professional_Learning_Communities_PLCs_were_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q10_The_Five_Step_Lesson_Plan_Template_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q11_The_Data_Analysis_Tool_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q12_The_Professional_Development_Modules_Scholarly_Articles_were_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q13_WorldTeachNet_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q14_Please_rate_the_Field_Director_on_the_following1_Was_accessible_and_eager_to_help</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q15_Please_rate_the_Field_Director_on_the_following2_Responded_promptly_to_requests_for_help</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q16_Please_rate_the_Field_Director_on_the_following3_Anticipated_needs_of_volunteers</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q17_Please_rate_the_Field_Director_on_the_following4_Followed_through_on_administrative_site_or_housing_issues</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q18_Please_rate_the_Field_Director_on_the_following5_Kept_volunteers_informed_of_changes_and_relevant_information</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q20_If_yesa_The_site_visit_was_useful_to_me</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q21_If_yesb_The_field_staff_member_made_me_feel_supported</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q22_If_yesc_The_field_staff_member_gave_me_useful_and_professional_feedback</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q23_andI_felt_safe_in_my_home</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q24_andI_felt_safe_in_my_community</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q25_andI_felt_safe_in_my_country_of_service</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>A01_Recommend</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>A02_Satisfaction</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q28_WorldTeacha_Offered_a_useful_service_to_the_host_country</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q29_WorldTeachb_Gave_me_a_meaningful_teaching_experience</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q30_WorldTeachc_Increased_my_understanding_of_another_culture</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q31_WorldTeachd_Improved_my_skills_in_the_local_language</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q32_WorldTeache_Helped_definechange_my_career_outlook</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q33_WorldTeachf_Provided_a_worthwhile_experience</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q34_useful_during_my_year_of_servicePredeparture_materials_and_assistance</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Q35_useful_during_my_year_of_serviceOrientation_and_incountry_training</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Q36_useful_during_my_year_of_serviceMidService_Conference</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Q37_useful_during_my_year_of_serviceIncountry_staff_support_and_communication_with_Field_Director</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Q38_useful_during_my_year_of_serviceSite_visitteaching_observation_by_Field_Director</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Q39_useful_during_my_year_of_serviceEndofService</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$174:$AM$174</c:f>
@@ -1221,6 +1453,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2288,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDFF05B-2356-A44A-AFAD-55D52CE36B56}">
   <dimension ref="A1:AM174"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AM1"/>
+    <sheetView topLeftCell="AB156" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173:AM173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23126,8 +23359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DC7524-5207-8246-A500-7AB0D549B40E}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23148,14 +23381,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.8895123116067147E-2</v>
+        <v>2.8895123116067099E-2</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="str">
-        <f>LEFT(B2,3)</f>
-        <v>Q02</v>
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -23166,11 +23398,10 @@
         <v>5.529727635313051E-2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="str">
-        <f>LEFT(B3,3)</f>
-        <v>Q07</v>
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -23181,11 +23412,10 @@
         <v>9.9827153718033926E-2</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" t="str">
-        <f>LEFT(B4,3)</f>
-        <v>Q08</v>
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -23196,11 +23426,10 @@
         <v>0.10430180086817394</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" t="str">
-        <f>LEFT(B5,3)</f>
-        <v>Q06</v>
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -23211,11 +23440,10 @@
         <v>0.1233466031514055</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="str">
-        <f>LEFT(B6,3)</f>
-        <v>Q10</v>
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -23226,11 +23454,10 @@
         <v>0.14581131994321606</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" t="str">
-        <f>LEFT(B7,3)</f>
-        <v>Q05</v>
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -23241,11 +23468,10 @@
         <v>0.1867657417430984</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" t="str">
-        <f>LEFT(B8,3)</f>
-        <v>Q03</v>
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -23256,11 +23482,10 @@
         <v>0.19640183314582818</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="str">
-        <f>LEFT(B9,3)</f>
-        <v>Q30</v>
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -23271,11 +23496,10 @@
         <v>0.20226586181247008</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="str">
-        <f>LEFT(B10,3)</f>
-        <v>Q04</v>
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -23286,11 +23510,10 @@
         <v>0.22081652336139321</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="str">
-        <f>LEFT(B11,3)</f>
-        <v>Q12</v>
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -23301,11 +23524,10 @@
         <v>0.29286512340465282</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" t="str">
-        <f>LEFT(B12,3)</f>
-        <v>Q24</v>
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -23316,11 +23538,10 @@
         <v>0.30525648354024904</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="str">
-        <f>LEFT(B13,3)</f>
-        <v>Q31</v>
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -23331,11 +23552,10 @@
         <v>0.30669187615820065</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" t="str">
-        <f>LEFT(B14,3)</f>
-        <v>Q23</v>
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -23346,11 +23566,10 @@
         <v>0.3132156708043034</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" t="str">
-        <f>LEFT(B15,3)</f>
-        <v>A02</v>
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -23361,11 +23580,10 @@
         <v>0.3186510027262765</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="str">
-        <f>LEFT(B16,3)</f>
-        <v>Q11</v>
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -23376,11 +23594,10 @@
         <v>0.33917794718479954</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" t="str">
-        <f>LEFT(B17,3)</f>
-        <v>Q28</v>
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -23391,11 +23608,10 @@
         <v>0.36635231482664288</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" t="str">
-        <f>LEFT(B18,3)</f>
-        <v>Q35</v>
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -23406,11 +23622,10 @@
         <v>0.38164636521299561</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="str">
-        <f>LEFT(B19,3)</f>
-        <v>Q22</v>
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -23421,11 +23636,10 @@
         <v>0.38342211431296597</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" t="str">
-        <f>LEFT(B20,3)</f>
-        <v>Q29</v>
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -23436,11 +23650,10 @@
         <v>0.42715031168230372</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" t="str">
-        <f>LEFT(B21,3)</f>
-        <v>Q33</v>
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -23451,11 +23664,10 @@
         <v>0.43450035727485464</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" t="str">
-        <f>LEFT(B22,3)</f>
-        <v>Q09</v>
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -23466,11 +23678,10 @@
         <v>0.44546663426536642</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" t="str">
-        <f>LEFT(B23,3)</f>
-        <v>Q18</v>
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -23481,11 +23692,10 @@
         <v>0.49423904863614904</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" t="str">
-        <f>LEFT(B24,3)</f>
-        <v>Q37</v>
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -23496,11 +23706,10 @@
         <v>0.50038696561798757</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" t="str">
-        <f>LEFT(B25,3)</f>
-        <v>Q32</v>
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -23511,11 +23720,10 @@
         <v>0.50502926062556819</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="str">
-        <f>LEFT(B26,3)</f>
-        <v>Q17</v>
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -23526,11 +23734,10 @@
         <v>0.52265125625443176</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" t="str">
-        <f>LEFT(B27,3)</f>
-        <v>Q21</v>
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -23541,11 +23748,10 @@
         <v>0.52641017794903955</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" t="str">
-        <f>LEFT(B28,3)</f>
-        <v>Q38</v>
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -23556,11 +23762,10 @@
         <v>0.57116042756256213</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" t="str">
-        <f>LEFT(B29,3)</f>
-        <v>Q16</v>
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -23571,11 +23776,10 @@
         <v>0.59835375617148834</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" t="str">
-        <f>LEFT(B30,3)</f>
-        <v>Q13</v>
+        <v>178</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -23586,11 +23790,10 @@
         <v>0.60762130404666315</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" t="str">
-        <f>LEFT(B31,3)</f>
-        <v>Q14</v>
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -23601,11 +23804,10 @@
         <v>0.62761217459174834</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" t="str">
-        <f>LEFT(B32,3)</f>
-        <v>Q34</v>
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -23616,11 +23818,10 @@
         <v>0.65431009760970826</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="str">
-        <f>LEFT(B33,3)</f>
-        <v>Q15</v>
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -23631,11 +23832,10 @@
         <v>0.68593788400257893</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" t="str">
-        <f>LEFT(B34,3)</f>
-        <v>Q20</v>
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -23643,14 +23843,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.69534533912116003</v>
+        <v>0.71425841761180431</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="str">
-        <f>LEFT(B35,3)</f>
-        <v>Q25</v>
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -23664,7 +23863,7 @@
         <v>199</v>
       </c>
       <c r="C36" t="str">
-        <f>LEFT(B36,3)</f>
+        <f t="shared" ref="C2:C36" si="0">LEFT(B36,3)</f>
         <v>Q36</v>
       </c>
       <c r="D36">
@@ -23672,8 +23871,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C39">
-    <sortCondition ref="A2:A39"/>
+  <sortState ref="H3:I38">
+    <sortCondition ref="H3:H38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
